--- a/data/income_statement/2digits/size/29_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/29_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>29-Manufacture of motor vehicles, trailers and semi-trailers</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>29-Manufacture of motor vehicles, trailers and semi-trailers</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>346166.89376</v>
+        <v>381036.61878</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>363853.8086699999</v>
+        <v>411567.58266</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>390500.71461</v>
+        <v>430930.3589299999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>375517.01188</v>
+        <v>424120.30419</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>346740.39164</v>
+        <v>398916.8144900001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>331053.35085</v>
+        <v>394672.21298</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>356700.2071</v>
+        <v>441161.22809</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>330937.27517</v>
+        <v>433016.56151</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>327565.26092</v>
+        <v>437374.8116999999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>965922.6171199998</v>
+        <v>1105683.25488</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1057146.96771</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1245502.80847</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1494639.923</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>307272.85435</v>
+        <v>337520.64822</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>322551.16348</v>
+        <v>363925.64078</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>344798.00421</v>
+        <v>380995.5085300001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>327841.25372</v>
+        <v>370316.31282</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>307241.88261</v>
+        <v>355099.20598</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>288270.43602</v>
+        <v>345152.58004</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>303256.84305</v>
+        <v>378477.05234</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>279314.58071</v>
+        <v>368170.44526</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>263116.24644</v>
+        <v>358801.22995</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>801909.98989</v>
+        <v>922105.89471</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>870970.5246100001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1036626.67677</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1249412.754</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>34056.55771</v>
+        <v>37450.64320000001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>36151.37859</v>
+        <v>41750.398</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>41747.88089</v>
+        <v>44359.30507</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>43131.20468</v>
+        <v>47502.7782</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>35182.67890000001</v>
+        <v>37685.8682</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>38723.80623</v>
+        <v>42906.12225</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>50042.00698000001</v>
+        <v>55711.76676</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>48264.03212999999</v>
+        <v>56074.20129</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>58380.77894</v>
+        <v>66180.97686</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>149493.57768</v>
+        <v>162364.09117</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>168368.73755</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>178707.61468</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>212158.764</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>4837.4817</v>
+        <v>6065.32736</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>5151.2666</v>
+        <v>5891.543880000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>3954.82951</v>
+        <v>5575.54533</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>4544.55348</v>
+        <v>6301.21317</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>4315.83013</v>
+        <v>6131.740309999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>4059.1086</v>
+        <v>6613.510689999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>3401.35707</v>
+        <v>6972.40899</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>3358.66233</v>
+        <v>8771.914959999998</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>6068.23554</v>
+        <v>12392.60489</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>14519.04955</v>
+        <v>21213.269</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>17807.70555</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>30168.51702</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>33068.405</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>3863.335480000001</v>
+        <v>4914.02544</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>4303.62562</v>
+        <v>4999.95234</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2407.15008</v>
+        <v>3197.14673</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2756.40574</v>
+        <v>3650.20212</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3509.19222</v>
+        <v>4245.81854</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2242.40634</v>
+        <v>2809.4184</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2062.84621</v>
+        <v>2693.73984</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>3125.8791</v>
+        <v>4925.218519999999</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1753.13314</v>
+        <v>3051.90611</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>6625.1354</v>
+        <v>8379.02348</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>12099.68775</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>14258.94023</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>18468.562</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3346.12549</v>
+        <v>4382.70392</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>3875.38628</v>
+        <v>4320.381280000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>2049.47395</v>
+        <v>2594.35682</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>2457.77531</v>
+        <v>3140.19273</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2551.40185</v>
+        <v>3156.25969</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2114.29886</v>
+        <v>2605.72712</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1956.54341</v>
+        <v>2443.23301</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>2846.92458</v>
+        <v>4034.00926</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1550.75737</v>
+        <v>2613.96525</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>5449.76354</v>
+        <v>6972.20952</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>10191.53909</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>12172.73302</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>17194.225</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>482.54456</v>
+        <v>496.33509</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>405.31336</v>
+        <v>560.4441400000001</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>145.94211</v>
+        <v>389.9377900000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>175.21827</v>
+        <v>367.70486</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>679.6561499999999</v>
+        <v>790.56647</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>107.16459</v>
+        <v>165.05044</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>68.85812</v>
+        <v>125.78297</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>188.67385</v>
+        <v>230.0868</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>127.01473</v>
+        <v>183.8354</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>937.78085</v>
+        <v>1118.46595</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1283.65242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1509.75557</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>502.761</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>34.66543</v>
+        <v>34.98643</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>22.92598</v>
+        <v>119.12692</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>211.73402</v>
+        <v>212.85212</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>123.41216</v>
+        <v>142.30453</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>278.13422</v>
+        <v>298.99238</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>20.94289</v>
+        <v>38.64084</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>37.44468</v>
+        <v>124.72386</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>90.28067</v>
+        <v>661.1224599999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>75.36103999999999</v>
+        <v>254.10546</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>237.59101</v>
+        <v>288.34801</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>624.4962399999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>576.45164</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>771.576</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>342303.5582800001</v>
+        <v>376122.59334</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>359550.18305</v>
+        <v>406567.63032</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>388093.56453</v>
+        <v>427733.2122</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>372760.60614</v>
+        <v>420470.1020700001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>343231.19942</v>
+        <v>394670.99595</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>328810.94451</v>
+        <v>391862.79458</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>354637.36089</v>
+        <v>438467.48825</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>327811.39607</v>
+        <v>428091.34299</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>325812.12778</v>
+        <v>434322.9055899999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>959297.48172</v>
+        <v>1097304.2314</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1045047.27996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1231243.86824</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1476171.361</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>280352.46559</v>
+        <v>307735.7685299999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>296109.03268</v>
+        <v>333986.29588</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>320995.16179</v>
+        <v>353354.68424</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>304709.54562</v>
+        <v>350357.6154600001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>285864.3588</v>
+        <v>327709.52139</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>269726.89151</v>
+        <v>318240.2571</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>281302.94076</v>
+        <v>344982.2599</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>267770.54767</v>
+        <v>345775.05915</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>268784.44533</v>
+        <v>350449.7688</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>789157.6772499999</v>
+        <v>893076.74891</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>861285.63323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1003015.15198</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1217984.958</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>158753.73371</v>
+        <v>175575.80094</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>174573.90358</v>
+        <v>200642.93635</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>198245.49382</v>
+        <v>223061.74706</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>182723.82485</v>
+        <v>209564.97647</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>184035.1899</v>
+        <v>213335.57667</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>164500.04615</v>
+        <v>200722.97194</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>157996.64421</v>
+        <v>206736.08744</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>147163.53941</v>
+        <v>203428.69258</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>140327.59876</v>
+        <v>195161.93275</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>470400.2418</v>
+        <v>535181.8375199999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>497025.8001800001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>579975.88612</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>722878.831</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>107152.56631</v>
+        <v>115236.39847</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>104501.99044</v>
+        <v>114404.38837</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>103357.83286</v>
+        <v>108970.93197</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>104884.82217</v>
+        <v>114723.64673</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>84530.76474</v>
+        <v>93545.68437</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>90052.56138</v>
+        <v>100893.38905</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>96259.99922</v>
+        <v>108070.16448</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>106444.03524</v>
+        <v>123634.14564</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>109497.24714</v>
+        <v>128906.57145</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>282243.56594</v>
+        <v>316010.21666</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>314586.4081</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>352394.97062</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>409059.321</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>13837.35153</v>
+        <v>16164.17192</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>16652.61951</v>
+        <v>18271.30701</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>18416.32287</v>
+        <v>20337.87797</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>16128.28219</v>
+        <v>16742.08793</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>16683.09649</v>
+        <v>20169.43416</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>14118.84093</v>
+        <v>15063.54872</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>24547.0488</v>
+        <v>27292.68695</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>13136.39807</v>
+        <v>17301.3924</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>16405.38795</v>
+        <v>23505.06889</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>33000.01381</v>
+        <v>37985.02827</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>46020.20419</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>64583.71135000001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>76714.086</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>608.8140400000001</v>
+        <v>759.3972</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>380.51915</v>
+        <v>667.6641499999999</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>975.51224</v>
+        <v>984.12724</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>972.6164099999999</v>
+        <v>9326.904329999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>615.30767</v>
+        <v>658.82619</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1055.44305</v>
+        <v>1560.34739</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>2499.24853</v>
+        <v>2883.32103</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1026.57495</v>
+        <v>1410.82853</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>2554.21148</v>
+        <v>2876.19571</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>3513.8557</v>
+        <v>3899.66646</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>3653.22076</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>6060.58389</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>9332.719999999999</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>61951.09269</v>
+        <v>68386.82481000001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>63441.15037</v>
+        <v>72581.33443999999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>67098.40273999999</v>
+        <v>74378.52795999999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>68051.06052000001</v>
+        <v>70112.48660999999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>57366.84062</v>
+        <v>66961.47456</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>59084.053</v>
+        <v>73622.53748</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>73334.42013</v>
+        <v>93485.22834999999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>60040.8484</v>
+        <v>82316.28384</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>57027.68245</v>
+        <v>83873.13678999999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>170139.80447</v>
+        <v>204227.48249</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>183761.64673</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>228228.71626</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>258186.403</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>52569.97147</v>
+        <v>62100.54085</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>49482.59265</v>
+        <v>61720.55414</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>48517.88179</v>
+        <v>69578.66993999999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>54265.00197</v>
+        <v>70938.20886</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>47296.35604</v>
+        <v>66108.67470999999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>46585.65615</v>
+        <v>68363.95293</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>63326.75296</v>
+        <v>85724.88352</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>47782.7097</v>
+        <v>88048.15935</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>49868.25354</v>
+        <v>86613.57603999999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>123108.73914</v>
+        <v>161473.38809</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>142292.14935</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>188320.67447</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>204489.914</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>283.31271</v>
+        <v>376.56227</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>205.15874</v>
+        <v>205.52291</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>106.17774</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1316.76106</v>
+        <v>1392.18627</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>375.31517</v>
+        <v>441.86711</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>177.64831</v>
+        <v>210.62005</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>227.91186</v>
+        <v>260.36088</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>65.05436</v>
+        <v>65.75936</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>341.4423</v>
+        <v>858.2759400000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>285.0643000000001</v>
+        <v>460.93848</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>437.3380500000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>742.19003</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>629.1420000000001</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>8219.69124</v>
+        <v>9014.97968</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>8198.85471</v>
+        <v>9335.65682</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>7475.810560000001</v>
+        <v>9252.673530000002</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>7606.919879999999</v>
+        <v>9002.870010000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>6166.836109999999</v>
+        <v>7955.8964</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>6460.48528</v>
+        <v>8229.14351</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>10734.26673</v>
+        <v>12462.46074</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>8245.570949999999</v>
+        <v>11034.2695</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>6665.16463</v>
+        <v>9466.256340000002</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>20457.25149</v>
+        <v>23911.92529</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>21572.79561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>26872.88652</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>28033.897</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>44066.96752000001</v>
+        <v>52708.9989</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>41078.5792</v>
+        <v>52179.37441</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>40935.89349</v>
+        <v>60219.81867</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>45341.32103</v>
+        <v>60543.15258</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>40754.20476</v>
+        <v>57710.9112</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>39947.52256</v>
+        <v>59924.18936999999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>52364.57436999999</v>
+        <v>73002.0619</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>39472.08439</v>
+        <v>76948.13049</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>42861.64661</v>
+        <v>76289.04375999999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>102366.42335</v>
+        <v>137100.52432</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>120282.01569</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>160705.59792</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>175826.875</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>9381.121219999999</v>
+        <v>6286.28396</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>13958.55772</v>
+        <v>10860.7803</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>18580.52095</v>
+        <v>4799.85802</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>13786.05855</v>
+        <v>-825.7222499999995</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>10070.48458</v>
+        <v>852.79985</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>12498.39685</v>
+        <v>5258.58455</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>10007.66717</v>
+        <v>7760.34483</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>12258.1387</v>
+        <v>-5731.875510000001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>7159.428910000001</v>
+        <v>-2740.43925</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>47031.06533</v>
+        <v>42754.0944</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>41469.49738</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>39908.04179</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>53696.489</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>2221.19069</v>
+        <v>5776.121050000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2952.94543</v>
+        <v>6974.558300000001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2624.57766</v>
+        <v>29098.40569</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>3377.93669</v>
+        <v>27989.89629</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1857.49215</v>
+        <v>12833.65194</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1289.8369</v>
+        <v>15819.99943</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1957.82599</v>
+        <v>18678.48026</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2506.58723</v>
+        <v>90974.66855</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3881.70426</v>
+        <v>67489.89193</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>16588.44453</v>
+        <v>283124.09993</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>10489.3515</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>86706.68402000002</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>297574.298</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>0</v>
+        <v>2348.5</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>21.67622</v>
+        <v>25.15149</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>2.20571</v>
+        <v>17402.88349</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>0</v>
+        <v>16572.07407</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>0</v>
+        <v>1472.49124</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>0.81088</v>
+        <v>522.52183</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>0</v>
+        <v>788.59132</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>12.55517</v>
+        <v>426.91417</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>0</v>
+        <v>725.46795</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>0</v>
+        <v>148.84673</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>985.73914</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>148.847</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1823,76 +1839,86 @@
         <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>4626.09616</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>1751.319</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>0</v>
+        <v>5110.37026</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0</v>
+        <v>5250</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2004.7471</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>11797.561</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>274.8948</v>
+        <v>525.16903</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>230.98301</v>
+        <v>889.0538800000002</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>139.73426</v>
+        <v>2176.19613</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>211.0416</v>
+        <v>3741.79117</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>114.68793</v>
+        <v>2654.38301</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>316.55737</v>
+        <v>2498.50992</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>148.83162</v>
+        <v>2542.05765</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>90.58583999999999</v>
+        <v>2300.37094</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>661.4084499999999</v>
+        <v>7124.20488</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1352.80263</v>
+        <v>8292.413280000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1176.07582</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>9733.188340000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>6997.424</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>82.09914999999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>96.01209</v>
+        <v>106.97608</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>65.08574</v>
+        <v>72.28574</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>12.42557</v>
@@ -1901,7 +1927,7 @@
         <v>13.27891</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>16.65045</v>
+        <v>16.65172</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>0</v>
@@ -1910,37 +1936,42 @@
         <v>31.20883</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>0</v>
+        <v>6432.66851</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>2.16782</v>
+        <v>94.07835</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>0.32141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>15.37256</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>269.609</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>183.17244</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>8.73</v>
+        <v>17.96894</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>33.34267</v>
+        <v>41.81449</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>91.19121</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>27.84077</v>
+        <v>30.01551</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>0</v>
+        <v>26.40337</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>1.127</v>
@@ -1949,97 +1980,112 @@
         <v>8.380879999999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>158.0361</v>
+        <v>287.13634</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>20.58809</v>
+        <v>61.24813</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>18.34392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>128.76596</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>260.215</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>36.90315</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>42.85062</v>
+        <v>42.9346</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>11.16413</v>
+        <v>12.09414</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>32.44544</v>
+        <v>33.79468</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>9.63936</v>
+        <v>18.0005</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>17.17503</v>
+        <v>17.17524</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>55.36807</v>
+        <v>58.36807</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>6.46498</v>
+        <v>8.4702</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>5.86821</v>
+        <v>417.33934</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>259.32758</v>
+        <v>740.9911500000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>66.51791</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>479.88008</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2232.475</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1257.80623</v>
+        <v>1765.35137</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1003.19508</v>
+        <v>3260.41887</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1468.57301</v>
+        <v>5209.56648</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>404.38186</v>
+        <v>3128.93692</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1075.49502</v>
+        <v>4793.920160000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>467.4052</v>
+        <v>4252.13053</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1341.52402</v>
+        <v>8697.52262</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1368.99482</v>
+        <v>72827.73378</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1060.10315</v>
+        <v>38632.29831000001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>12930.03628</v>
+        <v>163885.42935</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>6211.94618</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>58662.55532000001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>259562.088</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2054,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>0</v>
+        <v>5.94864</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>0</v>
@@ -2069,19 +2115,24 @@
         <v>0</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>0</v>
+        <v>58.7812</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>80.88495</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>131.64661</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>6.611</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>10.48554</v>
+        <v>13.19788</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>0</v>
@@ -2113,173 +2164,198 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>375.82938</v>
+        <v>821.72803</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1548.87037</v>
+        <v>2631.4264</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>899.97214</v>
+        <v>4179.065219999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1326.90296</v>
+        <v>3110.13462</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>613.76078</v>
+        <v>3842.82459</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>471.23797</v>
+        <v>3860.51066</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>410.97528</v>
+        <v>4839.4946</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>988.39671</v>
+        <v>15371.58975</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1996.28835</v>
+        <v>8760.40634</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>2023.52213</v>
+        <v>104592.31174</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2935.26131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>14564.78891</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>16299.468</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1957.22055</v>
+        <v>3877.18582</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2248.59149</v>
+        <v>9932.183490000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2074.65114</v>
+        <v>4612.8694</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1308.44461</v>
+        <v>4057.21079</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1109.73147</v>
+        <v>7515.677050000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>810.1256900000001</v>
+        <v>4298.00225</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1129.55744</v>
+        <v>21127.10919</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1585.44419</v>
+        <v>99115.98712999999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>2382.67399</v>
+        <v>107207.82594</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>15771.80275</v>
+        <v>145111.60529</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>5834.67074</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>52636.32838000001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>128146.935</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>192.35936</v>
+        <v>251.3159</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>74.77133000000001</v>
+        <v>76.49231</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>37.50662000000001</v>
+        <v>43.63439</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>51.30586</v>
+        <v>73.51455</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>28.64983</v>
+        <v>37.67396</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>43.97683</v>
+        <v>45.62396</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>52.89475</v>
+        <v>55.11689</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>17.78034</v>
+        <v>28</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>10.69943</v>
+        <v>28.45901</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>223.30139</v>
+        <v>255.2781</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>113.64724</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>171.99799</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>236.908</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>286.77759</v>
+        <v>991.6441600000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>680.22302</v>
+        <v>1167.29718</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>115.86774</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>214.3079</v>
+        <v>459.0719399999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>274.26626</v>
+        <v>503.33072</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>93.80345</v>
+        <v>303.73614</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>28.55177</v>
+        <v>10996.82783</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>232.47688</v>
+        <v>838.35218</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>6.19516</v>
+        <v>2021.64441</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>126.13682</v>
+        <v>180.48664</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1015.20877</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1018.52182</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>512.159</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>72.35543000000001</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>4.16674</v>
+        <v>17.23295</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>0</v>
@@ -2297,61 +2373,71 @@
         <v>10.54888</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>6.198020000000001</v>
+        <v>6.36032</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>9.65809</v>
+        <v>13.40926</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>60.34174</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>4.478</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1030.33516</v>
+        <v>1966.16699</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>936.21218</v>
+        <v>3534.00618</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1430.78435</v>
+        <v>3797.42722</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>656.96641</v>
+        <v>2394.01911</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>618.70029</v>
+        <v>6554.29221</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>521.82002</v>
+        <v>3608.06279</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>858.5082</v>
+        <v>9703.847880000001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1048.55458</v>
+        <v>97082.92727000001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1044.60956</v>
+        <v>103559.79968</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>15000.78491</v>
+        <v>143750.88026</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>4389.25286</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>45927.6137</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>123419.139</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2381,16 +2467,21 @@
         <v>0</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>0</v>
+        <v>9.46654</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>6.736050000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>267.28014</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>83.486</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>29.50323</v>
@@ -2423,595 +2514,673 @@
         <v>0</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>1.46474</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>345.88978</v>
+        <v>566.20011</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>553.21822</v>
+        <v>5137.15487</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>430.03437</v>
+        <v>595.48199</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>365.8670299999999</v>
+        <v>1110.60778</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>188.11509</v>
+        <v>420.38016</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>150.50348</v>
+        <v>340.55745</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>179.05384</v>
+        <v>360.76771</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>280.43437</v>
+        <v>1160.34736</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1321.16984</v>
+        <v>1597.92284</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>411.92154</v>
+        <v>902.08449</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>249.48408</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>5189.10825</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3890.765</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>4433.257900000001</v>
+        <v>6113.35134</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>3001.81439</v>
+        <v>4926.07267</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>2269.77468</v>
+        <v>4272.121279999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2730.12233</v>
+        <v>4588.55526</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2473.66197</v>
+        <v>3939.81655</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>2213.92951</v>
+        <v>4702.00313</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>2412.95952</v>
+        <v>7333.0771</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2902.96022</v>
+        <v>36170.31255</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1941.55069</v>
+        <v>51947.50392</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>9817.664339999999</v>
+        <v>18397.67019</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>10751.3915</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>18368.04749</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>18211.994</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>4108.742200000001</v>
+        <v>5771.846979999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>2847.51587</v>
+        <v>4584.48078</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2167.37515</v>
+        <v>3695.57055</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2558.15912</v>
+        <v>4409.91074</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>2391.6159</v>
+        <v>3826.36728</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>2050.13191</v>
+        <v>4465.54573</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>2330.6932</v>
+        <v>7231.440399999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2830.32626</v>
+        <v>35939.1609</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1837.40289</v>
+        <v>51497.39925</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>9287.532029999998</v>
+        <v>17644.30567</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>10072.61679</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>17458.34931</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>16637.575</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>324.5157</v>
+        <v>341.50436</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>154.29852</v>
+        <v>341.59189</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>102.39953</v>
+        <v>576.5507299999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>171.96321</v>
+        <v>178.64452</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>82.04606999999999</v>
+        <v>113.44927</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>163.7976</v>
+        <v>236.4574</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>82.26632000000001</v>
+        <v>101.6367</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>72.63396</v>
+        <v>231.15165</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>104.1478</v>
+        <v>450.10467</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>530.1323100000001</v>
+        <v>753.36452</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>678.7747099999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>909.69818</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1574.419</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>5211.83346</v>
+        <v>2071.86785</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>11661.09727</v>
+        <v>2977.08244</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>16860.67279</v>
+        <v>25013.27303</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>13125.4283</v>
+        <v>18518.40799</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>8344.58329</v>
+        <v>2230.95819</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>10764.17855</v>
+        <v>12078.5786</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>8422.976199999999</v>
+        <v>-2021.3612</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>10276.32152</v>
+        <v>-50043.50664</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>6716.90849</v>
+        <v>-94405.87718000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>38030.04276999999</v>
+        <v>162368.91885</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>35372.78664</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>55610.34994</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>204911.858</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2155.55301</v>
+        <v>5308.43055</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>4386.53732</v>
+        <v>11844.56028</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>2918.47459</v>
+        <v>4026.25465</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>2976.27875</v>
+        <v>8177.0769</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>2044.85914</v>
+        <v>14843.58147</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1558.45817</v>
+        <v>2766.80149</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1536.03665</v>
+        <v>6112.64751</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1897.98498</v>
+        <v>6095.19704</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>2042.11988</v>
+        <v>95553.57281</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>10058.45931</v>
+        <v>31394.10787</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>7904.688770000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>11917.89139</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>21069.971</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>54.37973</v>
+        <v>57.40573000000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>913.9136999999999</v>
+        <v>1075.32992</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>24.91349</v>
+        <v>290.1844</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>6.31224</v>
+        <v>7.15218</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>0.30639</v>
+        <v>22.31062</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1.95993</v>
+        <v>49.99927</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1.52993</v>
+        <v>1201.52993</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>4.09448</v>
+        <v>4.0945</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>22.79166</v>
+        <v>87661.24072</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>104.23307</v>
+        <v>484.80935</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>17.92162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>99.80237999999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>92.965</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2101.17328</v>
+        <v>5251.02482</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>3472.62362</v>
+        <v>10769.23036</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>2893.5611</v>
+        <v>3736.07025</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2969.96651</v>
+        <v>8169.924720000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>2044.55275</v>
+        <v>14821.27085</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1556.49824</v>
+        <v>2716.80222</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1534.50672</v>
+        <v>4911.11758</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1893.8905</v>
+        <v>6091.10254</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>2019.32822</v>
+        <v>7892.332090000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>9954.22624</v>
+        <v>30909.29852</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>7886.76715</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>11818.08901</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>20977.006</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4073.20531</v>
+        <v>6464.90497</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>5472.01849</v>
+        <v>7263.38913</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>19516.17434</v>
+        <v>23640.1989</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>3048.97634</v>
+        <v>6393.23258</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>2574.19176</v>
+        <v>6141.478520000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>5975.035620000001</v>
+        <v>11969.54577</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>2306.21131</v>
+        <v>7462.02216</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>10869.32628</v>
+        <v>35519.3201</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>3636.3339</v>
+        <v>7756.504380000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>27149.95553</v>
+        <v>74611.10223999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>6257.41783</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>14085.82453</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>12619.406</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>364.15049</v>
+        <v>412.52473</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>373.86325</v>
+        <v>642.93722</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>371.35117</v>
+        <v>393.28218</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>553.7166500000001</v>
+        <v>713.4774</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>393.63312</v>
+        <v>413.98224</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>390.06355</v>
+        <v>784.77796</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>139.84759</v>
+        <v>598.37873</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>505.84554</v>
+        <v>1617.51427</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>204.63365</v>
+        <v>393.61222</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>149.47913</v>
+        <v>610.05654</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>388.73454</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>895.9983100000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>537.1420000000001</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>107.79815</v>
+        <v>134.72128</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>335.65486</v>
+        <v>678.8325500000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>136.46497</v>
+        <v>150.84675</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>69.37478</v>
+        <v>149.3976</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>194.87932</v>
+        <v>247.67719</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>101.69307</v>
+        <v>112.81966</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>83.94351999999999</v>
+        <v>657.0352100000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>56.59569</v>
+        <v>508.54744</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>30.12571</v>
+        <v>45.6172</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>55.49847999999999</v>
+        <v>567.1151799999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>96.10736999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1270.11185</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>453.798</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3601.25667</v>
+        <v>5917.65896</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>4762.500379999999</v>
+        <v>5941.61936</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>19008.3582</v>
+        <v>23096.06997</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>2425.88491</v>
+        <v>5530.35758</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1985.67932</v>
+        <v>5479.81909</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>5483.279</v>
+        <v>11071.94815</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>2082.4202</v>
+        <v>6206.608220000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>10306.88505</v>
+        <v>33393.25839</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>3401.57454</v>
+        <v>7317.27496</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>26944.97792</v>
+        <v>73433.93051999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>5772.57592</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>11919.71437</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>11628.466</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>3294.18116</v>
+        <v>915.39343</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>10575.6161</v>
+        <v>7558.25359</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>262.9730400000003</v>
+        <v>5399.328779999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>13052.73071</v>
+        <v>20302.25231</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>7815.25067</v>
+        <v>10933.06114</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>6347.601100000001</v>
+        <v>2875.83432</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>7652.801540000001</v>
+        <v>-3370.73585</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1304.98022</v>
+        <v>-79467.6297</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>5122.694469999999</v>
+        <v>-6608.80875</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>20938.54655</v>
+        <v>119151.92448</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>37020.05758</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>53442.41680000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>213362.423</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2823.62777</v>
+        <v>3140.20631</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>2919.36849</v>
+        <v>4279.51783</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>4204.05368</v>
+        <v>4930.805939999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>3632.64261</v>
+        <v>4816.29671</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>3262.30263</v>
+        <v>4215.21107</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>3174.93801</v>
+        <v>4011.27362</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>2932.62357</v>
+        <v>4514.82791</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3065.70924</v>
+        <v>4702.27988</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>2682.06405</v>
+        <v>5550.819499999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>10876.07957</v>
+        <v>19577.12396</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>11395.28304</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>18625.48974</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>50134.393</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>470.5533899999999</v>
+        <v>-2224.81288</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>7656.247609999999</v>
+        <v>3278.73576</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-3941.08064</v>
+        <v>468.5228399999961</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>9420.088099999999</v>
+        <v>15485.9556</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>4552.94804</v>
+        <v>6717.85007</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3172.66309</v>
+        <v>-1135.4393</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>4720.17797</v>
+        <v>-7885.56376</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-1760.72902</v>
+        <v>-84169.90957999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>2440.63042</v>
+        <v>-12159.62824999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>10062.46698</v>
+        <v>99574.80051999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>25624.77454</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>34816.92706</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>163228.03</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1403</v>
+        <v>1513</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1353</v>
+        <v>1502</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1289</v>
+        <v>1436</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1216</v>
+        <v>1371</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1086</v>
+        <v>1273</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1006</v>
+        <v>1194</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>968</v>
+        <v>1191</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>922</v>
+        <v>1190</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>896</v>
+        <v>1175</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1202</v>
+        <v>1538</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1656</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>